--- a/data/technology_patents/epo_world_relative.xlsx
+++ b/data/technology_patents/epo_world_relative.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA40EF7-9BC3-2A46-B8B8-FB2ECCC720E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2879A12-71DB-7942-A893-4B6EB3F3BB20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="1920" windowWidth="27640" windowHeight="16940" xr2:uid="{7BA49C65-D9CD-B64B-9CD4-B064FD4E8300}"/>
+    <workbookView xWindow="8200" yWindow="1920" windowWidth="27640" windowHeight="16940" xr2:uid="{7BA49C65-D9CD-B64B-9CD4-B064FD4E8300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
   <si>
     <t>Country</t>
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>World_Env</t>
   </si>
   <si>
     <t>Relative</t>
@@ -410,7 +407,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,18 +420,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1999</v>
@@ -446,13 +443,13 @@
         <v>6712</v>
       </c>
       <c r="E2">
-        <f>D2/C2</f>
+        <f t="shared" ref="E2:E19" si="0">D2/C2</f>
         <v>6.1763839811542993E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -464,13 +461,13 @@
         <v>7394</v>
       </c>
       <c r="E3">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>6.3318889478822346E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2001</v>
@@ -482,13 +479,13 @@
         <v>7471</v>
       </c>
       <c r="E4">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>6.4883971374973939E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2002</v>
@@ -500,13 +497,13 @@
         <v>7512</v>
       </c>
       <c r="E5">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>6.3190834300711651E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2003</v>
@@ -518,13 +515,13 @@
         <v>8061</v>
       </c>
       <c r="E6">
-        <f>D6/C6</f>
+        <f t="shared" si="0"/>
         <v>6.4709046101482662E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2004</v>
@@ -536,13 +533,13 @@
         <v>8721</v>
       </c>
       <c r="E7">
-        <f>D7/C7</f>
+        <f t="shared" si="0"/>
         <v>6.5841229096674336E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2005</v>
@@ -554,13 +551,13 @@
         <v>9622</v>
       </c>
       <c r="E8">
-        <f>D8/C8</f>
+        <f t="shared" si="0"/>
         <v>7.0028602411918398E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>2006</v>
@@ -572,13 +569,13 @@
         <v>10651</v>
       </c>
       <c r="E9">
-        <f>D9/C9</f>
+        <f t="shared" si="0"/>
         <v>7.7924833373572422E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>2007</v>
@@ -590,13 +587,13 @@
         <v>11668</v>
       </c>
       <c r="E10">
-        <f>D10/C10</f>
+        <f t="shared" si="0"/>
         <v>8.6537320517384594E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>2008</v>
@@ -608,13 +605,13 @@
         <v>12299</v>
       </c>
       <c r="E11">
-        <f>D11/C11</f>
+        <f t="shared" si="0"/>
         <v>9.486821502125066E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>2009</v>
@@ -626,13 +623,13 @@
         <v>14246</v>
       </c>
       <c r="E12">
-        <f>D12/C12</f>
+        <f t="shared" si="0"/>
         <v>0.10761606913535482</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>2010</v>
@@ -644,13 +641,13 @@
         <v>15513</v>
       </c>
       <c r="E13">
-        <f>D13/C13</f>
+        <f t="shared" si="0"/>
         <v>0.11369082954070751</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>2011</v>
@@ -662,13 +659,13 @@
         <v>16035</v>
       </c>
       <c r="E14">
-        <f>D14/C14</f>
+        <f t="shared" si="0"/>
         <v>0.11405667624548325</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>2012</v>
@@ -680,13 +677,13 @@
         <v>15642</v>
       </c>
       <c r="E15">
-        <f>D15/C15</f>
+        <f t="shared" si="0"/>
         <v>0.10903387703889586</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>2013</v>
@@ -698,13 +695,13 @@
         <v>14738</v>
       </c>
       <c r="E16">
-        <f>D16/C16</f>
+        <f t="shared" si="0"/>
         <v>0.10052108910350849</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>2014</v>
@@ -716,13 +713,13 @@
         <v>13878</v>
       </c>
       <c r="E17">
-        <f>D17/C17</f>
+        <f t="shared" si="0"/>
         <v>9.5793586150724072E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>2015</v>
@@ -734,13 +731,13 @@
         <v>13424</v>
       </c>
       <c r="E18">
-        <f>D18/C18</f>
+        <f t="shared" si="0"/>
         <v>9.2233276534931019E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -752,7 +749,7 @@
         <v>12345</v>
       </c>
       <c r="E19">
-        <f>D19/C19</f>
+        <f t="shared" si="0"/>
         <v>8.3414980235818781E-2</v>
       </c>
     </row>
